--- a/nba2k_editor/Offsets/Stadiums.xlsx
+++ b/nba2k_editor/Offsets/Stadiums.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stadium" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Stadium" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,47 +422,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Normalized Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -483,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#1</t>
+          <t>ALT_FLOOR_FILE#1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORFILE1</t>
+          <t>ALTFLOORFILE1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#1</t>
+          <t>0xD8 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,18 +494,13 @@
           <t>0xD8 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0xD8 (type=string, length=96, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#2</t>
+          <t>ALT_FLOOR_FILE#2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,12 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORFILE2</t>
+          <t>ALTFLOORFILE2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#2</t>
+          <t>0xE4 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,18 +528,13 @@
           <t>0xE4 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0xE4 (type=string, length=96, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#3</t>
+          <t>ALT_FLOOR_FILE#3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -571,12 +544,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORFILE3POINT</t>
+          <t>ALTFLOORFILE3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_FILE#3</t>
+          <t>0xF0 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,18 +562,13 @@
           <t>0xF0 (type=string, length=96, startBit=0)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0xF0 (type=string, length=96, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#1</t>
+          <t>ALT_FLOOR_JERSEY#1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -610,12 +578,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORJERSEY1</t>
+          <t>ALTFLOORJERSEY1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#1</t>
+          <t>0x72E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -628,18 +596,13 @@
           <t>0x72E (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0x72E (type=combo, length=2, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#2</t>
+          <t>ALT_FLOOR_JERSEY#2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -649,12 +612,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORJERSEY2</t>
+          <t>ALTFLOORJERSEY2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#2</t>
+          <t>0x730 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,18 +630,13 @@
           <t>0x730 (type=combo, length=2, startBit=0)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0x730 (type=combo, length=2, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#3</t>
+          <t>ALT_FLOOR_JERSEY#3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -688,32 +646,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STADIUMVITALSALTFLOORJERSEY3POINT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ALT_FLOOR_JERSEY#3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>ALTFLOORJERSEY3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x12F4 (type=combo, length=16, startBit=7)</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0x12F4 (type=combo, length=16, startBit=7)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>0x724 (type=combo, length=16, startBit=7)</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ARENA_CAPACITY</t>
+          <t>Arena Id</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -723,36 +676,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STADIUMVITALSARENACAPACITY</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - ARENA_CAPACITY</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x71C (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0x71C (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0x71C (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>ARENAID</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0xBA (type=String, length=38)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ARENA_FILE</t>
+          <t>Arena Name</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,36 +702,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STADIUMVITALSARENAFILE</t>
+          <t>ARENANAME</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stadium Vitals - ARENA_FILE</t>
+          <t>0x0 (type=string, length=528, startBit=0)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0xC2 (type=string, length=80, startBit=0)</t>
+          <t>0x0 (type=string, length=528, startBit=0)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0xC2 (type=string, length=80, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0xC2 (type=string, length=80, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>0x0 (type=string, length=528, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0x0 (type=WString, length=33)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Stadium Vitals - BASKETBALL_TYPE</t>
+          <t>ARENA_CAPACITY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -801,36 +740,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STADIUMVITALSBASKETBALLTYPE</t>
+          <t>ARENACAPACITY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stadium Vitals - BASKETBALL_TYPE</t>
+          <t>0x71C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x12F8 (type=combo, length=32, startBit=0)</t>
+          <t>0x71C (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x12F8 (type=combo, length=32, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0x12FC (type=combo, length=32, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x71C (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CITY_ABB</t>
+          <t>ARENA_FILE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -840,36 +774,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STADIUMVITALSCITYABB</t>
+          <t>ARENAFILE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CITY_ABB</t>
+          <t>0xC2 (type=string, length=80, startBit=0)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0xFC (type=string, length=144, startBit=0)</t>
+          <t>0xC2 (type=string, length=80, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0xFC (type=string, length=144, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0xFC (type=string, length=144, startBit=0)</t>
-        </is>
-      </c>
+          <t>0xC2 (type=string, length=80, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CITY_NAME</t>
+          <t>Backboard Shakes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -879,36 +808,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STADIUMVITALSCITYNAME</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - CITY_NAME</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x82 (type=string, length=384, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0x82 (type=string, length=384, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x82 (type=string, length=384, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>BACKBOARDSHAKES</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0x7E7 (type=Binary, length=2)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CROWD_LOUDNESS</t>
+          <t>BASKETBALL_TYPE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -918,36 +834,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STADIUMVITALSCROWDLOUDNESS</t>
+          <t>BASKETBALLTYPE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CROWD_LOUDNESS</t>
+          <t>0x12F8 (type=combo, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x721 (type=number, length=8, startBit=0)</t>
+          <t>0x12F8 (type=combo, length=32, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x721 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0x721 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x12FC (type=combo, length=32, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Stadium Vitals - CROWD_TYPE</t>
+          <t>City Floor Id</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -957,36 +868,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STADIUMVITALSCROWDTYPE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - CROWD_TYPE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x737 (type=combo, length=3, startBit=5)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0x737 (type=combo, length=3, startBit=5)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0x737 (type=combo, length=3, startBit=5)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>CITYFLOORID</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0x108 (type=String, length=120)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Stadium Vitals - DORNAS_ID</t>
+          <t>City Name</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -996,36 +894,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STADIUMVITALSDORNASID</t>
+          <t>CITYNAME</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stadium Vitals - DORNAS_ID</t>
+          <t>0x82 (type=string, length=384, startBit=0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0xB2 (type=string, length=64, startBit=0)</t>
+          <t>0x82 (type=string, length=384, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0xB2 (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0xB2 (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>0x82 (type=string, length=384, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0x82 (type=WString, length=24)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stadium Vitals - FLOOR_FILE</t>
+          <t>City Short Name</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1035,36 +932,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STADIUMVITALSFLOORFILE</t>
+          <t>CITYSHORTNAME</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stadium Vitals - FLOOR_FILE</t>
+          <t>0xFC (type=string, length=144, startBit=0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0xCC (type=string, length=96, startBit=0)</t>
+          <t>0xFC (type=string, length=144, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0xCC (type=string, length=96, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0xCC (type=string, length=96, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>0xFC (type=string, length=144, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0x180 (type=WString, length=9)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Stadium Vitals - HOME_BASKET</t>
+          <t>Crowd Type</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1074,32 +970,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STADIUMVITALSHOMEBASKET</t>
+          <t>CROWDTYPE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stadium Vitals - HOME_BASKET</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>0x737 (type=combo, length=3, startBit=5)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x737 (type=combo, length=3, startBit=5)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x727 (type=combo, length=1, startBit=5)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0x12FB (type=combo, length=1, startBit=5)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>0x737 (type=combo, length=3, startBit=5)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0x7E2 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stadium Vitals - LED ID</t>
+          <t>CROWD_LOUDNESS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1109,36 +1008,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>STADIUMVITALSLEDID</t>
+          <t>CROWDLOUDNESS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stadium Vitals - LED ID</t>
+          <t>0x721 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0xBA (type=string, length=64, startBit=0)</t>
+          <t>0x721 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0xBA (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0xBA (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x721 (type=number, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stadium Vitals - LOCATION_TYPE</t>
+          <t>DornasID</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1148,36 +1042,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STADIUMVITALSLOCATIONTYPE</t>
+          <t>DORNASID</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stadium Vitals - LOCATION_TYPE</t>
+          <t>0xB2 (type=string, length=64, startBit=0)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x724 (type=combo, length=3, startBit=5)</t>
+          <t>0xB2 (type=string, length=64, startBit=0)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0x724 (type=combo, length=3, startBit=5)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0x724 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>0xB2 (type=string, length=64, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0xB2 (type=String, length=4)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stadium Vitals - MUSIC_PROBABILITY</t>
+          <t>Floor Id</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1187,36 +1080,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>STADIUMVITALSMUSICPROBABILITY</t>
+          <t>FLOORID</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stadium Vitals - MUSIC_PROBABILITY</t>
+          <t>0xCC (type=string, length=96, startBit=0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x720 (type=number, length=8, startBit=0)</t>
+          <t>0xCC (type=string, length=96, startBit=0)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0x720 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0x720 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>0xCC (type=string, length=96, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0xE0 (type=String, length=40)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stadium Vitals - NAME</t>
+          <t>HOME_BASKET</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1226,36 +1118,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STADIUMVITALSNAME</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Stadium Vitals - NAME</t>
-        </is>
-      </c>
+          <t>HOMEBASKET</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x0 (type=string, length=528, startBit=0)</t>
+          <t>0x727 (type=combo, length=1, startBit=5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0x0 (type=string, length=528, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0x0 (type=string, length=528, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x12FB (type=combo, length=1, startBit=5)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stadium Vitals - NICKNAME</t>
+          <t>LED Id</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1265,36 +1148,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STADIUMVITALSNICKNAME</t>
+          <t>LEDID</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stadium Vitals - NICKNAME</t>
+          <t>0xBA (type=string, length=64, startBit=0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x42 (type=string, length=512, startBit=0)</t>
+          <t>0xBA (type=string, length=64, startBit=0)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0x42 (type=string, length=512, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0x42 (type=string, length=512, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>0xBA (type=string, length=64, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0xB6 (type=String, length=4)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stadium Vitals - SOUND_ID</t>
+          <t>LOCATION_TYPE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1304,36 +1186,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STADIUMVITALSSOUNDID</t>
+          <t>LOCATIONTYPE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stadium Vitals - SOUND_ID</t>
+          <t>0x724 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x722 (type=number, length=8, startBit=0)</t>
+          <t>0x724 (type=combo, length=3, startBit=5)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0x722 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0x722 (type=number, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x724 (type=combo, length=3, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stadium Vitals - STATE</t>
+          <t>MUSIC_PROBABILITY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1343,36 +1220,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STADIUMVITALSSTATE</t>
+          <t>MUSICPROBABILITY</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Stadium Vitals - STATE</t>
+          <t>0x720 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x10E (type=string, length=64, startBit=0)</t>
+          <t>0x720 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0x10E (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0x10E (type=string, length=64, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x720 (type=number, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stadium Vitals - TYPE</t>
+          <t>Nickname</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1382,36 +1254,35 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>STADIUMVITALSTYPE</t>
+          <t>NICKNAME</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stadium Vitals - TYPE</t>
+          <t>0x42 (type=string, length=512, startBit=0)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x724 (type=combo, length=4, startBit=0)</t>
+          <t>0x42 (type=string, length=512, startBit=0)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0x724 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0x724 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>0x42 (type=string, length=512, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0x42 (type=WString, length=32)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stadium Vitals - UNIQUEID</t>
+          <t>SOUND_ID</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,31 +1292,158 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STADIUMVITALSUNIQUEID</t>
+          <t>SOUNDID</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stadium Vitals - UNIQUEID</t>
+          <t>0x722 (type=number, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0x722 (type=number, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0x722 (type=number, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x10E (type=string, length=64, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x10E (type=string, length=64, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0x10E (type=string, length=64, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>State Short Name</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>STATESHORTNAME</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0x192 (type=WString, length=8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TYPE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>TYPE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x724 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x724 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0x724 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UNIQUEID</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>0x71E (type=number, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0x71E (type=number, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>0x71E (type=number, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0x7D2 (type=Integer)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
